--- a/Memoria.xlsx
+++ b/Memoria.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Documents\GitHub\Mepsan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:0_{A7F20D7A-9DAF-4C94-8180-D07A1FC3C5C0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96316F25-DE32-4468-9F76-E771C1A55A7C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{8F82CC24-3345-4A67-9839-79CBAECDD7F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>Bloque de memoria</t>
   </si>
@@ -52,6 +52,36 @@
   </si>
   <si>
     <t>LSB-shift_number</t>
+  </si>
+  <si>
+    <t>side.a.ppuNozzle[0][0]</t>
+  </si>
+  <si>
+    <t>side.a.ppuNozzle[1][0]</t>
+  </si>
+  <si>
+    <t>side.a.ppuNozzle[2][0]</t>
+  </si>
+  <si>
+    <t>side.a.ppuNozzle[3][0]</t>
+  </si>
+  <si>
+    <t>side.b.ppuNozzle[0][0]</t>
+  </si>
+  <si>
+    <t>side.b.ppuNozzle[1][0]</t>
+  </si>
+  <si>
+    <t>side.b.ppuNozzle[2][0]</t>
+  </si>
+  <si>
+    <t>side.b.ppuNozzle[3][0]</t>
+  </si>
+  <si>
+    <t>side.a.ProcessedTotals[0][0][x]</t>
+  </si>
+  <si>
+    <t>side.b.ProcessedTotals[0][0][x]</t>
   </si>
 </sst>
 </file>
@@ -403,16 +433,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAE1889C-643C-4689-A27D-B94286BFC365}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -518,6 +548,236 @@
         <v>8</v>
       </c>
     </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f>A23+1</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f t="shared" ref="A25:A48" si="1">A24+1</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
